--- a/Result/checksun_f/2025-06-22.xlsx
+++ b/Result/checksun_f/2025-06-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,245 +436,260 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>分類標籤</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>stock_number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>_quote</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>短增量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價long_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>MACD_golden_cross</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>VPC_break</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_MA_long</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_MA_short</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum_12</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>VPC_SIGNAL</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Full_Summary</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>

--- a/Result/checksun_f/2025-06-22.xlsx
+++ b/Result/checksun_f/2025-06-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,260 +436,285 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>漲跌BYN天</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>增縮BYN天</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>漲跌BYN天Diff</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>增縮BYN天Diff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>textdesc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>分類標籤</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>stock_number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>_quote</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>成交股數</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_量</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>短增量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>均價long_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>MACD_golden_cross</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>VPC_break</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Volume_MA_long</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Volume_MA_short</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>VPC_SIGNAL</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Full_Summary</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>

--- a/Result/checksun_f/2025-06-22.xlsx
+++ b/Result/checksun_f/2025-06-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,52 +496,52 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>均價long_%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>均價long_%</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -561,160 +561,165 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>MACD_golden_cross</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>%K</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>%D</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>VPC_MA_%</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>MA_break</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_golden_cross</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>VPC_break</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Volume_MA_long</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Volume_MA_short</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>VPC_SIGNAL</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Full_Summary</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
